--- a/Hydro/climate data/generacionNeta.xlsx
+++ b/Hydro/climate data/generacionNeta.xlsx
@@ -385,7 +385,7 @@
     <t xml:space="preserve">GN DIC 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Chicoasén</t>
+    <t xml:space="preserve">Ing. Manuel Moreno Torres (Chicoasén)</t>
   </si>
   <si>
     <t xml:space="preserve">Malpaso</t>
@@ -583,7 +583,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -628,6 +628,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -702,7 +707,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,20 +732,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -755,11 +764,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,13 +792,13 @@
   </sheetPr>
   <dimension ref="1:64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.9919028340081"/>
     <col collapsed="false" hidden="false" max="838" min="2" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="839" style="0" width="11.6761133603239"/>
   </cols>
@@ -1897,7 +1906,7 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="7" t="n">
@@ -2448,7 +2457,7 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="7" t="n">
@@ -2999,7 +3008,7 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="7" t="n">
@@ -3550,7 +3559,7 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="7" t="n">
@@ -4101,7 +4110,7 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B7" s="7" t="n">
@@ -4652,7 +4661,7 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B8" s="7" t="n">
@@ -5203,7 +5212,7 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B9" s="7" t="n">
@@ -5754,7 +5763,7 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B10" s="7" t="n">
@@ -6305,7 +6314,7 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="7" t="n">
@@ -6856,7 +6865,7 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="7" t="n">
@@ -7407,7 +7416,7 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="10" t="s">
         <v>132</v>
       </c>
       <c r="B13" s="7" t="n">
@@ -7958,7 +7967,7 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="7" t="n">
@@ -8509,7 +8518,7 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="7" t="n">
@@ -9060,7 +9069,7 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B16" s="7" t="n">
@@ -9611,7 +9620,7 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B17" s="7" t="n">
@@ -10162,7 +10171,7 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B18" s="7" t="n">
@@ -10713,7 +10722,7 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="7" t="n">
@@ -11264,7 +11273,7 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="7" t="n">
@@ -11815,7 +11824,7 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="7" t="n">
@@ -12366,7 +12375,7 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B22" s="7" t="n">
@@ -12917,7 +12926,7 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B23" s="7" t="n">
@@ -13468,7 +13477,7 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="7"/>
@@ -13779,7 +13788,7 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B25" s="7" t="n">
@@ -14330,7 +14339,7 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B26" s="7" t="n">
@@ -14881,7 +14890,7 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="10" t="s">
         <v>146</v>
       </c>
       <c r="B27" s="7" t="n">
@@ -15432,7 +15441,7 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B28" s="7" t="n">
@@ -15983,7 +15992,7 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="10" t="s">
         <v>148</v>
       </c>
       <c r="B29" s="7" t="n">
@@ -16534,7 +16543,7 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="10" t="s">
         <v>149</v>
       </c>
       <c r="B30" s="7" t="n">
@@ -17085,7 +17094,7 @@
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B31" s="7" t="n">
@@ -17636,7 +17645,7 @@
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B32" s="7" t="n">
@@ -18187,7 +18196,7 @@
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="10" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="7" t="n">
@@ -18738,7 +18747,7 @@
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="7" t="n">
@@ -19289,7 +19298,7 @@
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="7" t="n">
@@ -19840,7 +19849,7 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B36" s="7" t="n">
@@ -20391,7 +20400,7 @@
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B37" s="7" t="n">
@@ -20942,7 +20951,7 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B38" s="7" t="n">
@@ -21493,7 +21502,7 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="10" t="s">
         <v>158</v>
       </c>
       <c r="B39" s="7" t="n">
@@ -22044,7 +22053,7 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="10" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="7" t="n">
@@ -22595,7 +22604,7 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" s="9" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="10" t="s">
         <v>160</v>
       </c>
       <c r="B41" s="7" t="n">
@@ -23146,733 +23155,733 @@
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ42" s="11" t="n">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ42" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ43" s="11" t="n">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ43" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B44" s="7" t="n">
@@ -24237,7 +24246,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="10" t="s">
         <v>164</v>
       </c>
       <c r="B45" s="7" t="n">
@@ -24602,7 +24611,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="10" t="s">
         <v>165</v>
       </c>
       <c r="B46" s="7" t="n">
@@ -24967,7 +24976,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="10" t="s">
         <v>166</v>
       </c>
       <c r="B47" s="7" t="n">
@@ -25332,7 +25341,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="10" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="7" t="n">
@@ -25697,7 +25706,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="7" t="n">
@@ -26062,7 +26071,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="10" t="s">
         <v>169</v>
       </c>
       <c r="B50" s="7" t="n">
@@ -26427,7 +26436,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="10" t="s">
         <v>170</v>
       </c>
       <c r="B51" s="7" t="n">
@@ -26792,7 +26801,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="10" t="s">
         <v>171</v>
       </c>
       <c r="B52" s="7" t="n">
@@ -27157,7 +27166,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B53" s="7" t="n">
@@ -27522,7 +27531,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="10" t="s">
         <v>173</v>
       </c>
       <c r="B54" s="7" t="n">
@@ -27887,7 +27896,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="10" t="s">
         <v>174</v>
       </c>
       <c r="B55" s="7" t="n">
@@ -28252,7 +28261,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="10" t="s">
         <v>175</v>
       </c>
       <c r="B56" s="7" t="n">
@@ -28617,7 +28626,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="10" t="s">
         <v>176</v>
       </c>
       <c r="B57" s="7" t="n">
@@ -28982,7 +28991,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B58" s="7" t="n">
@@ -29347,7 +29356,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="10" t="s">
         <v>178</v>
       </c>
       <c r="B59" s="7" t="n">
@@ -29712,7 +29721,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B60" s="7" t="n">
@@ -30077,7 +30086,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B61" s="7" t="n">
@@ -30442,7 +30451,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="10" t="s">
         <v>181</v>
       </c>
       <c r="B62" s="7" t="n">
@@ -30807,7 +30816,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="10" t="s">
         <v>182</v>
       </c>
       <c r="B63" s="7" t="n">
@@ -31172,367 +31181,367 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" s="13" t="n">
+      <c r="B64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="14" t="n">
         <v>56.169</v>
       </c>
-      <c r="D64" s="13" t="n">
+      <c r="D64" s="14" t="n">
         <v>1565.822</v>
       </c>
-      <c r="E64" s="13" t="n">
+      <c r="E64" s="14" t="n">
         <v>1648.243</v>
       </c>
-      <c r="F64" s="13" t="n">
+      <c r="F64" s="14" t="n">
         <v>1584.218</v>
       </c>
-      <c r="G64" s="13" t="n">
+      <c r="G64" s="14" t="n">
         <v>1502.687</v>
       </c>
-      <c r="H64" s="13" t="n">
+      <c r="H64" s="14" t="n">
         <v>1084.039</v>
       </c>
-      <c r="I64" s="13" t="n">
+      <c r="I64" s="14" t="n">
         <v>206.553</v>
       </c>
-      <c r="J64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" s="13" t="n">
+      <c r="J64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="14" t="n">
         <v>456.944</v>
       </c>
-      <c r="P64" s="13" t="n">
+      <c r="P64" s="14" t="n">
         <v>1284.401</v>
       </c>
-      <c r="Q64" s="13" t="n">
+      <c r="Q64" s="14" t="n">
         <v>1569.898</v>
       </c>
-      <c r="R64" s="13" t="n">
+      <c r="R64" s="14" t="n">
         <v>1573.557</v>
       </c>
-      <c r="S64" s="13" t="n">
+      <c r="S64" s="14" t="n">
         <v>1293.58</v>
       </c>
-      <c r="T64" s="13" t="n">
+      <c r="T64" s="14" t="n">
         <v>1168.422</v>
       </c>
-      <c r="U64" s="13" t="n">
+      <c r="U64" s="14" t="n">
         <v>984.598</v>
       </c>
-      <c r="V64" s="13" t="n">
+      <c r="V64" s="14" t="n">
         <v>1384.493</v>
       </c>
-      <c r="W64" s="13" t="n">
+      <c r="W64" s="14" t="n">
         <v>174.456</v>
       </c>
-      <c r="X64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="13" t="n">
+      <c r="X64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="14" t="n">
         <v>507.573</v>
       </c>
-      <c r="AB64" s="13" t="n">
+      <c r="AB64" s="14" t="n">
         <v>1495.216</v>
       </c>
-      <c r="AC64" s="13" t="n">
+      <c r="AC64" s="14" t="n">
         <v>1468.889</v>
       </c>
-      <c r="AD64" s="13" t="n">
+      <c r="AD64" s="14" t="n">
         <v>1423.762</v>
       </c>
-      <c r="AE64" s="13" t="n">
+      <c r="AE64" s="14" t="n">
         <v>1355.274</v>
       </c>
-      <c r="AF64" s="13" t="n">
+      <c r="AF64" s="14" t="n">
         <v>1084.513</v>
       </c>
-      <c r="AG64" s="13" t="n">
+      <c r="AG64" s="14" t="n">
         <v>790.286</v>
       </c>
-      <c r="AH64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="13" t="n">
+      <c r="AH64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="14" t="n">
         <v>618.403</v>
       </c>
-      <c r="AN64" s="13" t="n">
+      <c r="AN64" s="14" t="n">
         <v>1166.902</v>
       </c>
-      <c r="AO64" s="13" t="n">
+      <c r="AO64" s="14" t="n">
         <v>1242.787</v>
       </c>
-      <c r="AP64" s="13" t="n">
+      <c r="AP64" s="14" t="n">
         <v>1426.177</v>
       </c>
-      <c r="AQ64" s="13" t="n">
+      <c r="AQ64" s="14" t="n">
         <v>1536.092</v>
       </c>
-      <c r="AR64" s="13" t="n">
+      <c r="AR64" s="14" t="n">
         <v>1607.297</v>
       </c>
-      <c r="AS64" s="13" t="n">
+      <c r="AS64" s="14" t="n">
         <v>1221.54</v>
       </c>
-      <c r="AT64" s="13" t="n">
+      <c r="AT64" s="14" t="n">
         <v>1223.525</v>
       </c>
-      <c r="AU64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" s="13" t="n">
+      <c r="AU64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" s="14" t="n">
         <v>159.107</v>
       </c>
-      <c r="AZ64" s="13" t="n">
+      <c r="AZ64" s="14" t="n">
         <v>1146.841</v>
       </c>
-      <c r="BA64" s="13" t="n">
+      <c r="BA64" s="14" t="n">
         <v>1105.631</v>
       </c>
-      <c r="BB64" s="13" t="n">
+      <c r="BB64" s="14" t="n">
         <v>1450.315</v>
       </c>
-      <c r="BC64" s="13" t="n">
+      <c r="BC64" s="14" t="n">
         <v>1529.83</v>
       </c>
-      <c r="BD64" s="13" t="n">
+      <c r="BD64" s="14" t="n">
         <v>868.514</v>
       </c>
-      <c r="BE64" s="13" t="n">
+      <c r="BE64" s="14" t="n">
         <v>1201.164</v>
       </c>
-      <c r="BF64" s="13" t="n">
+      <c r="BF64" s="14" t="n">
         <v>1177.065</v>
       </c>
-      <c r="BG64" s="13" t="n">
+      <c r="BG64" s="14" t="n">
         <v>207.786</v>
       </c>
-      <c r="BH64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK64" s="13" t="n">
+      <c r="BH64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK64" s="14" t="n">
         <v>402.074</v>
       </c>
-      <c r="BL64" s="13" t="n">
+      <c r="BL64" s="14" t="n">
         <v>1407.802</v>
       </c>
-      <c r="BM64" s="13" t="n">
+      <c r="BM64" s="14" t="n">
         <v>1451.517</v>
       </c>
-      <c r="BN64" s="13" t="n">
+      <c r="BN64" s="14" t="n">
         <v>1500.667</v>
       </c>
-      <c r="BO64" s="13" t="n">
+      <c r="BO64" s="14" t="n">
         <v>1475.153</v>
       </c>
-      <c r="BP64" s="13" t="n">
+      <c r="BP64" s="14" t="n">
         <v>1504.699</v>
       </c>
-      <c r="BQ64" s="13" t="n">
+      <c r="BQ64" s="14" t="n">
         <v>1493.76</v>
       </c>
-      <c r="BR64" s="13" t="n">
+      <c r="BR64" s="14" t="n">
         <v>908.878</v>
       </c>
-      <c r="BS64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW64" s="13" t="n">
+      <c r="BS64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW64" s="14" t="n">
         <v>65.198</v>
       </c>
-      <c r="BX64" s="13" t="n">
+      <c r="BX64" s="14" t="n">
         <v>1271.615</v>
       </c>
-      <c r="BY64" s="13" t="n">
+      <c r="BY64" s="14" t="n">
         <v>1486.575</v>
       </c>
-      <c r="BZ64" s="13" t="n">
+      <c r="BZ64" s="14" t="n">
         <v>1518.513</v>
       </c>
-      <c r="CA64" s="13" t="n">
+      <c r="CA64" s="14" t="n">
         <v>1453.789</v>
       </c>
-      <c r="CB64" s="13" t="n">
+      <c r="CB64" s="14" t="n">
         <v>1506.923</v>
       </c>
-      <c r="CC64" s="13" t="n">
+      <c r="CC64" s="14" t="n">
         <v>1510.224</v>
       </c>
-      <c r="CD64" s="13" t="n">
+      <c r="CD64" s="14" t="n">
         <v>1416.104</v>
       </c>
-      <c r="CE64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ64" s="13" t="n">
+      <c r="CE64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ64" s="14" t="n">
         <v>661.282</v>
       </c>
-      <c r="CK64" s="13" t="n">
+      <c r="CK64" s="14" t="n">
         <v>965.321</v>
       </c>
-      <c r="CL64" s="13" t="n">
+      <c r="CL64" s="14" t="n">
         <v>1119.529</v>
       </c>
-      <c r="CM64" s="13" t="n">
+      <c r="CM64" s="14" t="n">
         <v>1103.935</v>
       </c>
-      <c r="CN64" s="13" t="n">
+      <c r="CN64" s="14" t="n">
         <v>642.934</v>
       </c>
-      <c r="CO64" s="13" t="n">
+      <c r="CO64" s="14" t="n">
         <v>738.857</v>
       </c>
-      <c r="CP64" s="13" t="n">
+      <c r="CP64" s="14" t="n">
         <v>356.435</v>
       </c>
-      <c r="CQ64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV64" s="13" t="n">
+      <c r="CQ64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV64" s="14" t="n">
         <v>1097.381</v>
       </c>
-      <c r="CW64" s="13" t="n">
+      <c r="CW64" s="14" t="n">
         <v>1333.619</v>
       </c>
-      <c r="CX64" s="13" t="n">
+      <c r="CX64" s="14" t="n">
         <v>1503.305</v>
       </c>
-      <c r="CY64" s="13" t="n">
+      <c r="CY64" s="14" t="n">
         <v>1508.717</v>
       </c>
-      <c r="CZ64" s="13" t="n">
+      <c r="CZ64" s="14" t="n">
         <v>1610.438</v>
       </c>
-      <c r="DA64" s="13" t="n">
+      <c r="DA64" s="14" t="n">
         <v>760.193</v>
       </c>
-      <c r="DB64" s="13" t="n">
+      <c r="DB64" s="14" t="n">
         <v>421.043</v>
       </c>
-      <c r="DC64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH64" s="13" t="n">
+      <c r="DC64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH64" s="14" t="n">
         <v>898.499</v>
       </c>
-      <c r="DI64" s="13" t="n">
+      <c r="DI64" s="14" t="n">
         <v>1487.217</v>
       </c>
-      <c r="DJ64" s="13" t="n">
+      <c r="DJ64" s="14" t="n">
         <v>1561.487</v>
       </c>
-      <c r="DK64" s="13" t="n">
+      <c r="DK64" s="14" t="n">
         <v>1531.295</v>
       </c>
-      <c r="DL64" s="13" t="n">
+      <c r="DL64" s="14" t="n">
         <v>1593.158</v>
       </c>
-      <c r="DM64" s="13" t="n">
+      <c r="DM64" s="14" t="n">
         <v>1555.035</v>
       </c>
-      <c r="DN64" s="13" t="n">
+      <c r="DN64" s="14" t="n">
         <v>1487.481</v>
       </c>
-      <c r="DO64" s="13" t="n">
+      <c r="DO64" s="14" t="n">
         <v>13.217</v>
       </c>
-      <c r="DP64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ64" s="14" t="n">
+      <c r="DP64" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ64" s="15" t="n">
         <v>0</v>
       </c>
     </row>
